--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2152362.247575883</v>
+        <v>2150110.167864676</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7740905403548</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -716,7 +716,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>100.5196155760011</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>13.43221574807291</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>206.5922292904583</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0.3107267886865429</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>275.1428043778293</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>124.2292170629838</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>144.7268717888062</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>139.175595971222</v>
       </c>
       <c r="H8" t="n">
-        <v>54.41653174045868</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>76.9503019954242</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>71.98153210089535</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>132.1190787273731</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272892</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458179</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.81060261323961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977105</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.00369384633011</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518785</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>153.0598676525411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713362</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>98.79136808967674</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>101.6969570046926</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>278.7019488598324</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>14.53306611597336</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>53.30076123484789</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>36.22494343869893</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>152.6628237007937</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>60.86846495359787</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,10 +3718,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>117.4665281367395</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4192,13 +4192,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>184.5976356537998</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1151.298377994912</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C2" t="n">
-        <v>782.3358610545008</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2654.27196356604</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2301.503308295926</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1928.037550034846</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1537.898218059034</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>648.3899067494191</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C4" t="n">
-        <v>479.4537238215122</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D4" t="n">
-        <v>479.4537238215122</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1823.896196150998</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1602.129580720524</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1602.129580720524</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.445092514637</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1058.027922477676</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>830.0383715796588</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y4" t="n">
-        <v>830.0383715796588</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1285.591601078695</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>916.6290841382836</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2788.565186649823</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2435.796531379709</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>2062.330773118629</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>1672.191441142817</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1801.810490449115</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979147</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="D8" t="n">
-        <v>971.281412372397</v>
+        <v>939.4077790033366</v>
       </c>
       <c r="E8" t="n">
-        <v>585.4931597741527</v>
+        <v>553.6195264050923</v>
       </c>
       <c r="F8" t="n">
-        <v>174.5072549845451</v>
+        <v>546.6740256558888</v>
       </c>
       <c r="G8" t="n">
-        <v>163.4752088699457</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4875,7 +4875,7 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>685.8122911638649</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1134.594421205412</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>906.604870307395</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>685.8122911638649</v>
       </c>
     </row>
     <row r="11">
@@ -5075,7 +5075,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3160.164713532175</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C13" t="n">
-        <v>3160.164713532175</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D13" t="n">
-        <v>3010.048074119839</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>2862.134980537446</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>2728.681365661311</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>2561.485266376191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>2419.773435218389</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>3160.164713532175</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y13" t="n">
-        <v>3160.164713532175</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921487</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187003</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239595</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>924.834428639718</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6054,37 +6054,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1333.912104952176</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>1113.119525808646</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277309</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.82229605222</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,22 +6540,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>634.5603720565526</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>642.8692823226941</v>
+        <v>1031.260321675049</v>
       </c>
       <c r="C31" t="n">
-        <v>473.9330993947872</v>
+        <v>862.3241387471426</v>
       </c>
       <c r="D31" t="n">
-        <v>323.8164599824514</v>
+        <v>712.2074993348068</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>564.2944057524137</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>417.4044582545033</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>250.2083589693833</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>108.4965278115813</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2326.07822707019</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1273.299877194481</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1045.310326296464</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="Y31" t="n">
-        <v>824.5177471529338</v>
+        <v>1212.908786505289</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2410.372231621975</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2410.372231621975</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>699.7311804011399</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2385.479785647333</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2165.878320670274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,43 +7400,43 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7731,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1501.923595618545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1212.506425581584</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>13.30196929555814</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>186.7544012944554</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.0213775686977</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.7255247667981</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>159.5809595057647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>72.64978773649602</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>126.9182872993604</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>44.73700564187658</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>7.82104947675856</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.73277020259218</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>127.7255247667967</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>112.4047682534901</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>30.15030327142276</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.8601746357973</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>120.1578210480467</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.1518465585626</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>134.6711151870886</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>67.54000767002816</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874657</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.0322517936</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179359</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26448,7 +26448,7 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179358</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931777.4701605252</v>
+        <v>-931777.4701605251</v>
       </c>
       <c r="C6" t="n">
         <v>396967.2755670674</v>
       </c>
       <c r="D6" t="n">
-        <v>396967.2755670674</v>
+        <v>396967.2755670673</v>
       </c>
       <c r="E6" t="n">
-        <v>147479.2608921984</v>
+        <v>147444.5229667627</v>
       </c>
       <c r="F6" t="n">
-        <v>472891.7226995534</v>
+        <v>472856.9847741184</v>
       </c>
       <c r="G6" t="n">
-        <v>472891.7226995544</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="H6" t="n">
-        <v>472891.7226995541</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="I6" t="n">
-        <v>472891.7226995537</v>
+        <v>472856.9847741183</v>
       </c>
       <c r="J6" t="n">
-        <v>255360.5203022762</v>
+        <v>255325.7823768404</v>
       </c>
       <c r="K6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741178</v>
       </c>
       <c r="L6" t="n">
-        <v>472891.7226995538</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="M6" t="n">
-        <v>387836.6947640419</v>
+        <v>387801.9568386064</v>
       </c>
       <c r="N6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="O6" t="n">
-        <v>472891.7226995538</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="P6" t="n">
-        <v>472891.7226995535</v>
+        <v>472856.9847741181</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>244.4988012306527</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>227.2326428941338</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>176.336809583369</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>19.11742609857882</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.3723148319964</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>94.58829630063974</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>161.9826211426291</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>73.85778156328857</v>
       </c>
     </row>
     <row r="8">
@@ -27856,19 +27856,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>271.7461296822315</v>
       </c>
       <c r="H8" t="n">
-        <v>240.1912326468618</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>90.29651910320364</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>214.5414662356957</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28539,7 +28539,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29466,10 +29466,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-2.631863191373152e-12</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>289.7537444526271</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>567.7870775946146</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>369.1789913099994</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>353.3934907042774</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>361.1081696176617</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32555,31 +32555,31 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>558.3759638958066</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>194.5189324111251</v>
+        <v>553.392502062293</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33746,7 +33746,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>414.9172504145583</v>
+        <v>652.3203287778407</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33983,19 +33983,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>359.7096985496635</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>163.4402738502018</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,13 +34363,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34451,22 +34451,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M45" t="n">
-        <v>671.9287955253226</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782681</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>425.1908331501702</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060466</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>226.582746865555</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>219.4190832899471</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>222.5537898377875</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>416.2419299737883</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>45.87687150790111</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36762,10 +36762,10 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899085</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060407</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>55.9645526312509</v>
+        <v>414.8381222824188</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998944</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>283.575538331225</v>
+        <v>520.9786166945074</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>29.46586643587157</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,13 +38011,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38099,22 +38099,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M45" t="n">
-        <v>529.7947616033043</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
